--- a/ExcelConfig/士兵表.xlsx
+++ b/ExcelConfig/士兵表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,10 +133,6 @@
   </si>
   <si>
     <t>NewSoldierID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OldSoldierID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -216,6 +212,42 @@
   </si>
   <si>
     <t>最大血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OldSoldierID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长枪兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,16 +656,16 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -647,18 +679,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -671,28 +703,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.54296875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="12.08984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.90625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
+    <col min="3" max="5" width="10.5546875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="12.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -703,25 +735,28 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -732,7 +767,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -749,8 +784,11 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -761,86 +799,153 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="G3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="J3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3">
-        <f>(4-G4)*15+10*I4</f>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3">
+        <f>(4-H4)*15+10*J4</f>
         <v>55</v>
       </c>
-      <c r="E4" s="2">
-        <f>ABS(G4)*2+5*I4</f>
+      <c r="F4" s="2">
+        <f>ABS(H4)*2+5*J4</f>
         <v>7</v>
       </c>
-      <c r="F4" s="2">
-        <f>4-G4+I4*3</f>
+      <c r="G4" s="2">
+        <f>4-H4+J4*3</f>
         <v>6</v>
       </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
       <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
         <v>1000</v>
       </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.35">
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3">
-        <f>(4-G5)*15+10*I5</f>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3">
+        <f>(4-H5)*15+10*J5</f>
         <v>40</v>
       </c>
-      <c r="E5" s="2">
-        <f>ABS(G5)*2+5*I5</f>
+      <c r="F5" s="2">
+        <f>ABS(H5)*2+5*J5</f>
         <v>9</v>
       </c>
-      <c r="F5" s="2">
-        <f>4-G5+I5*3</f>
+      <c r="G5" s="2">
+        <f>4-H5+J5*3</f>
         <v>5</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>2</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>1200</v>
       </c>
-      <c r="I5" s="2">
-        <v>1</v>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="2">
+        <v>400</v>
+      </c>
+      <c r="F6" s="2">
+        <v>70</v>
+      </c>
+      <c r="G6" s="2">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2">
+        <v>400</v>
+      </c>
+      <c r="F7" s="2">
+        <v>70</v>
+      </c>
+      <c r="G7" s="2">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:S2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:T2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>
@@ -858,20 +963,20 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -879,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -905,7 +1010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -913,16 +1018,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -933,10 +1038,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -944,13 +1049,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -961,10 +1066,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -975,7 +1080,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
